--- a/public/resource/Worksheet_in_GITS-Training_Curriculum_Proposal_v1.xlsx
+++ b/public/resource/Worksheet_in_GITS-Training_Curriculum_Proposal_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdzaman/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdzaman/Desktop/toGitHub/gitsics-website/public/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30342852-CE68-A64D-B195-BF85C58BB8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4266C6F0-527C-854A-9FB3-6142868D5310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,21 +113,12 @@
     <t>Week Starting</t>
   </si>
   <si>
-    <t>Group 1 (7 AFA Test Consultants)</t>
-  </si>
-  <si>
     <t>Jmeter Quiz, Evaluation</t>
   </si>
   <si>
-    <t>Jmeter Q&amp;A, AFA Context</t>
-  </si>
-  <si>
     <t>Track</t>
   </si>
   <si>
-    <t>Review and Revise AFA Test Automation Practice, Process, Documentation, Standards, Metrics</t>
-  </si>
-  <si>
     <t>CSS</t>
   </si>
   <si>
@@ -285,6 +276,15 @@
   </si>
   <si>
     <t>Accessebility (Chrome Dev Tool)</t>
+  </si>
+  <si>
+    <t>Group 1 (7 GITS Test Consultants)</t>
+  </si>
+  <si>
+    <t>Review and Revise GITS Test Automation Practice, Process, Documentation, Standards, Metrics</t>
+  </si>
+  <si>
+    <t>Jmeter Q&amp;A, GITS Context</t>
   </si>
 </sst>
 </file>
@@ -505,35 +505,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,8 +842,8 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -868,7 +868,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>23</v>
@@ -890,98 +890,98 @@
       </c>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="A2" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="24">
         <v>46034</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>42</v>
+      <c r="C3" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="11"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -994,82 +994,82 @@
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="24">
         <v>46034</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
-      <c r="B9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="11"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1082,82 +1082,82 @@
       <c r="A11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="24">
         <v>46034</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>42</v>
+      <c r="C11" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
-      <c r="B13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
-      <c r="B14" s="19"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="11"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -1181,83 +1181,83 @@
       <c r="A16" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="24">
         <f>B11+7</f>
         <v>46041</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>52</v>
+      <c r="C16" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
-      <c r="B19" s="19"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="11"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -1281,83 +1281,83 @@
       <c r="A21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="24">
         <f>B16+7</f>
         <v>46048</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>53</v>
+      <c r="C21" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
-      <c r="B23" s="24"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
-      <c r="B24" s="19"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="11"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1381,83 +1381,83 @@
       <c r="A26" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="24">
         <f>B21+7</f>
         <v>46055</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="19"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="24"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
-      <c r="B29" s="19"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="11"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -1481,83 +1481,83 @@
       <c r="A31" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="24">
         <f>B26+7</f>
         <v>46062</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>81</v>
+      <c r="C31" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="19"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="24"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
-      <c r="B34" s="19"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="11"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -1581,83 +1581,83 @@
       <c r="A36" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="24">
         <f>B31+7</f>
         <v>46069</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>78</v>
+      <c r="C36" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="15" t="s">
+      <c r="I36" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="19"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F37" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>73</v>
-      </c>
       <c r="I37" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="24"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
-      <c r="B39" s="19"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="11"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -1681,65 +1681,65 @@
       <c r="A41" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="24">
         <f>B36+7</f>
         <v>46076</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>79</v>
+      <c r="C41" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G41" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="H41" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="I41" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="19"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E42" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G42" s="15" t="s">
+      <c r="H42" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="I42" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
-      <c r="B43" s="19"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="11"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
     </row>
     <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
@@ -1756,7 +1756,7 @@
       <c r="A45" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="24">
         <f>B41+7</f>
         <v>46083</v>
       </c>
@@ -1764,23 +1764,23 @@
         <v>7</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="26"/>
-      <c r="I45" s="27"/>
+        <v>25</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="20"/>
     </row>
     <row r="46" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="24"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="11" t="s">
         <v>7</v>
       </c>
@@ -1788,33 +1788,33 @@
         <v>21</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" s="26"/>
-      <c r="I46" s="27"/>
+        <v>82</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="20"/>
     </row>
     <row r="47" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
-      <c r="B47" s="19"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
+      <c r="E47" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
     </row>
     <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
@@ -1839,15 +1839,15 @@
         <v>7</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="27"/>
+        <v>64</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="20"/>
     </row>
     <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
@@ -1861,15 +1861,15 @@
         <v>7</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="27"/>
+        <v>64</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="20"/>
     </row>
     <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
@@ -1883,15 +1883,15 @@
         <v>7</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="27"/>
+        <v>64</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="20"/>
     </row>
     <row r="52" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
@@ -1907,16 +1907,38 @@
       <c r="D52" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="27"/>
+      <c r="E52" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
     <mergeCell ref="E49:I49"/>
     <mergeCell ref="E50:I50"/>
     <mergeCell ref="E51:I51"/>
@@ -1933,28 +1955,6 @@
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
